--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF9DA94-62BA-4699-86BA-D00E5056D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1400CBD-3726-47E5-BECE-194E208B94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="7620" yWindow="0" windowWidth="11760" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>/api/member</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,6 +164,49 @@
   </si>
   <si>
     <t>/deleteBidAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{경매 아이디}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 아이디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    SB_id : string,
+    img : string,
+    title : string,
+    ex : string,
+    start : string,
+    bid : string,
+    date : date,
+    immediate : string,
+    current : int,
+    seller_id : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/submit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    img : string,
+    title : string,
+    ex : string,
+    start : string,
+    bid : string,
+    date : date,
+    immediate : string,
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -263,51 +306,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,7 +671,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,70 +687,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -719,321 +759,341 @@
       <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="198" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1400CBD-3726-47E5-BECE-194E208B94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3048A1-DED4-4071-B096-AC3ADA616C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="0" windowWidth="11760" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>/api/member</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,19 +82,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/idCheck</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/signup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    id : string,
-    nickname : string,
-    pw : string
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -138,18 +126,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    SB_id : string,
-    price : string,
-    bid_date : string,
-    imgs : [string, string...] or null,
-    title : string,
-  }, ...
-]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -209,12 +185,54 @@
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    id : string,
+    nickname : string,
+    pw : string,
+    email : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id : string,
+    pw : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id : string,
+    before : string,
+    after : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    SB_id : string,
+    aitem_id : string,
+    price : string,
+    bid_date : string,
+    imgs : [string, string...] or null,
+    title : string,
+    content : string
+  }, ...
+]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +264,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +296,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -294,8 +325,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,8 +362,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -343,17 +400,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -668,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,139 +756,139 @@
     <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
     <col min="7" max="7" width="31.75" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -820,148 +896,128 @@
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -969,26 +1025,46 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -997,7 +1073,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1006,7 +1082,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1015,7 +1091,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1024,7 +1100,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1033,7 +1109,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1042,7 +1118,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1051,7 +1127,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1060,7 +1136,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1069,7 +1145,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1078,7 +1154,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1087,13 +1163,37 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3048A1-DED4-4071-B096-AC3ADA616C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B35E803-8725-445A-AF60-69982FD0ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="8025" yWindow="540" windowWidth="14295" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>/api/member</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -186,15 +186,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    id : string,
-    nickname : string,
-    pw : string,
-    email : string
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/login</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,6 +216,22 @@
     content : string
   }, ...
 ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id : string,
+    nickname : string,
+    pw : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    status : boolean,
+    message : string,
+    nickname : string
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +401,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,31 +411,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -746,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,92 +773,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9"/>
       <c r="I3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -867,7 +877,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -878,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -886,7 +896,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -897,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -905,7 +915,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -924,7 +934,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -938,12 +948,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -962,7 +972,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -981,7 +991,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -990,7 +1000,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -999,7 +1009,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1008,7 +1018,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1017,7 +1027,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1026,7 +1036,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1055,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1064,7 +1074,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1073,7 +1083,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1082,7 +1092,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1091,7 +1101,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1100,7 +1110,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1109,7 +1119,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1118,7 +1128,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1127,7 +1137,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1136,7 +1146,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1145,7 +1155,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1154,7 +1164,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1163,7 +1173,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B35E803-8725-445A-AF60-69982FD0ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C9CB0-3A0A-4F5C-9F59-41F7D4D22995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="540" windowWidth="14295" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="300" yWindow="375" windowWidth="14295" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,8 @@
     <t>{
     status : boolean,
     message : string,
-    nickname : string
+    nickname : string,
+    point : number
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -404,6 +405,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,9 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -757,7 +758,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,39 +774,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -820,7 +821,7 @@
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="9"/>
@@ -829,36 +830,36 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -877,7 +878,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -896,7 +897,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -934,7 +935,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -953,7 +954,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -972,7 +973,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -991,7 +992,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1000,7 +1001,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1009,7 +1010,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1018,7 +1019,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1027,7 +1028,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1036,7 +1037,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1083,7 +1084,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1092,7 +1093,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1101,7 +1102,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1110,7 +1111,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1119,7 +1120,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1128,7 +1129,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1137,7 +1138,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1146,7 +1147,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1155,7 +1156,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1164,7 +1165,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1173,7 +1174,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C9CB0-3A0A-4F5C-9F59-41F7D4D22995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA1F7D-CAFA-4E06-9E12-C51DD4D9EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="375" windowWidth="14295" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
-  <si>
-    <t>/api/member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Body</t>
   </si>
@@ -155,34 +151,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    SB_id : string,
-    img : string,
-    title : string,
-    ex : string,
-    start : string,
-    bid : string,
-    date : date,
-    immediate : string,
-    current : int,
-    seller_id : string
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/submit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    img : string,
-    title : string,
-    ex : string,
-    start : string,
-    bid : string,
-    date : date,
-    immediate : string,
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -232,6 +201,42 @@
     message : string,
     nickname : string,
     point : number
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    img : string,
+    title : string,
+    content : string,
+    start : string,
+    bid : string,
+    date : date,
+    immediate : string,
+    userId : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    aitem_id : string,
+    img : string,
+    title : string,
+    content : string,
+    start : string,
+    bid : string,
+    date : date,
+    immediate : string,
+    current : int,
+    seller_id : string
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -374,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -459,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -605,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,20 +783,20 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -797,57 +805,59 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9"/>
       <c r="I3" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
@@ -861,133 +871,133 @@
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -1039,40 +1049,40 @@
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA1F7D-CAFA-4E06-9E12-C51DD4D9EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A6A4F6-B200-4DB9-BE6B-6E2D55A5800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Body</t>
   </si>
@@ -237,6 +238,21 @@
     immediate : string,
     current : int,
     seller_id : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 url로 응답</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    partner_user_id : string,
+    total_amount : number,
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -413,6 +429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -467,9 +483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +523,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -613,7 +629,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -755,7 +771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,39 +798,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -838,38 +854,38 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -888,7 +904,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -907,7 +923,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -926,7 +942,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -945,7 +961,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -964,7 +980,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -983,7 +999,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1001,17 +1017,29 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1020,7 +1048,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1029,7 +1057,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1038,7 +1066,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1047,7 +1075,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1063,10 +1091,10 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1082,10 +1110,10 @@
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1094,7 +1122,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1103,7 +1131,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1112,7 +1140,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1121,7 +1149,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1130,7 +1158,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1139,7 +1167,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1148,7 +1176,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1157,7 +1185,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1166,7 +1194,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1175,7 +1203,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1184,7 +1212,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A6A4F6-B200-4DB9-BE6B-6E2D55A5800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645450FC-F4F9-4ADE-82EC-9B12EA7DCF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Body</t>
   </si>
@@ -253,6 +252,19 @@
     <t>{
     partner_user_id : string,
     total_amount : number,
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/point/approved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    partner_user_id : string,
+    partner_order_id : number,
+    tid : number,
+    pg_token : number,
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -781,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1038,13 +1050,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645450FC-F4F9-4ADE-82EC-9B12EA7DCF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CA617-233A-44D1-833C-9DF1087F41A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="3690" yWindow="765" windowWidth="17475" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Body</t>
   </si>
@@ -266,6 +266,52 @@
     tid : number,
     pg_token : number,
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getpoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    point : number
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+      Aitem_id : string,
+      title : string,
+      current : number,
+      immediate : string,
+      remaining : string
+  }, ...
+]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/{경매 아이디}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blob</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,13 +1115,23 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1134,22 +1190,36 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CA617-233A-44D1-833C-9DF1087F41A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D63A26-E749-4634-9009-9D37616BF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="765" windowWidth="17475" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Body</t>
   </si>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>/member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auction</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -314,12 +310,39 @@
     <t>Blob</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    userId : string,
+    itemId : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auctionitem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bidding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +382,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +419,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -438,8 +474,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,8 +503,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,10 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="입력" xfId="4" builtinId="20"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -840,7 +898,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +988,7 @@
       </c>
       <c r="G4" s="20"/>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,6 +999,9 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="21"/>
+      <c r="I5" s="22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
@@ -1078,7 +1139,7 @@
     <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -1087,19 +1148,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -1108,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
@@ -1118,19 +1179,19 @@
     <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1167,7 +1228,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -1183,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
@@ -1193,42 +1254,37 @@
     <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1249,14 +1305,24 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D63A26-E749-4634-9009-9D37616BF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63263EB-0A07-4F32-8CCC-AB40B57DF496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Body</t>
   </si>
@@ -319,22 +319,68 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>/auctionitem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bidding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id 참고하고 있는 자식 테블 정보 다 바꿔야함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bidding/immediately</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     userId : string,
+    itemId : string,
+    current : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bidding/close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
     itemId : string
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/auctionitem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bidding</t>
+    <t>{
+    nickname : string,
+    point : string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰자와 현재 금액
+응답이 오기 전까지 경매가 정지됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    itemId : string,
+    flag : boolean
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bidding/decide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 종료에 대한 결정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +590,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,8 +623,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -897,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,44 +958,44 @@
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="31.875" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -970,41 +1019,41 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1020,10 +1069,12 @@
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1093,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1112,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1131,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1150,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1169,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1188,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1158,7 +1209,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1177,7 +1228,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1196,7 +1247,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1205,7 +1256,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1214,7 +1265,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1284,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1303,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1320,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1284,11 +1335,11 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1297,7 +1348,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1305,10 +1356,10 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>55</v>
@@ -1317,51 +1368,85 @@
         <v>56</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1370,7 +1455,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63263EB-0A07-4F32-8CCC-AB40B57DF496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79D87C-BB64-41B6-82F3-2285C7068BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-810" yWindow="420" windowWidth="17475" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/bidding/close</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     itemId : string
 }</t>
@@ -376,11 +372,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/bidding/decide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>경매 종료에 대한 결정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/decide</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,6 +593,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -947,7 +947,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,39 +963,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1019,41 +1019,41 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
       <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1256,7 +1256,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1265,7 +1265,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1335,11 +1335,11 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1348,7 +1348,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1357,7 +1357,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
@@ -1395,9 +1395,9 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -1406,19 +1406,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
@@ -1427,17 +1427,17 @@
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1446,7 +1446,7 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1455,7 +1455,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79D87C-BB64-41B6-82F3-2285C7068BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF1CC6-47DE-4CBE-916C-873133819DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-810" yWindow="420" windowWidth="17475" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
@@ -353,13 +353,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    nickname : string,
-    point : string
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>낙찰자와 현재 금액
 응답이 오기 전까지 경매가 정지됨</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,6 +374,12 @@
   </si>
   <si>
     <t>/decide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    message : string
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +946,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,10 +1393,10 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -1409,16 +1408,16 @@
         <v>63</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
@@ -1427,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF1CC6-47DE-4CBE-916C-873133819DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D9BFD9-717A-48AF-852B-86A9D95799CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-810" yWindow="420" windowWidth="17475" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Body</t>
   </si>
@@ -380,6 +380,22 @@
     <t>{
     message : string
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>st = number, sort = number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>st 페이지 번호
+sort
+    0 : 최신순
+    1 : 종료된 경매 제외
+    2 : 내가 올린 것만</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -946,7 +965,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>1</v>
@@ -1310,13 +1329,17 @@
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D9BFD9-717A-48AF-852B-86A9D95799CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF4F0D-78C7-458A-9DD5-6BF10772BB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Body</t>
   </si>
@@ -398,12 +398,28 @@
     2 : 내가 올린 것만</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>/{userId}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/paymentLog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +467,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +509,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -550,8 +580,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,8 +643,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,19 +690,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,11 +714,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20% - 강조색1" xfId="5" builtinId="30"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="입력" xfId="4" builtinId="20"/>
@@ -964,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1089,7 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
@@ -1013,10 +1102,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1037,42 +1126,42 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
       <c r="I4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
       <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1092,8 +1181,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1111,8 +1200,8 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1130,8 +1219,8 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1149,8 +1238,8 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1168,8 +1257,8 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1187,8 +1276,8 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1206,8 +1295,8 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1227,8 +1316,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1246,8 +1335,8 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1265,8 +1354,8 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1274,8 +1363,8 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1283,8 +1372,8 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1302,8 +1391,8 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1321,8 +1410,8 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1337,13 +1426,13 @@
       <c r="F20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1357,12 +1446,12 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1370,8 +1459,8 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1379,8 +1468,8 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1398,8 +1487,8 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1417,8 +1506,8 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1438,8 +1527,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1459,17 +1548,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1477,32 +1565,45 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1511,7 +1612,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="A3:A34"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF4F0D-78C7-458A-9DD5-6BF10772BB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A9A61-636E-4C17-87E7-47E3F9D90977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,18 +291,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[
-  {
-      Aitem_id : string,
-      title : string,
-      current : number,
-      immediate : string,
-      remaining : string
-  }, ...
-]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/{경매 아이디}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -412,6 +400,21 @@
   </si>
   <si>
     <t>/paymentLog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  len : number
+  list : [
+    {
+        Aitem_id : string,
+        title : string,
+        current : number,
+        immediate : string,
+        remaining : string
+    }, ...
+  ]
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -693,14 +696,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -708,29 +726,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -755,9 +758,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -795,7 +798,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -901,7 +904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1053,59 +1056,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="37.75" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" customWidth="1"/>
+    <col min="6" max="6" width="40.8984375" customWidth="1"/>
+    <col min="7" max="7" width="37.69921875" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1125,43 +1128,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="26"/>
       <c r="I4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1177,12 +1180,12 @@
         <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1199,9 +1202,9 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1218,9 +1221,9 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1237,9 +1240,9 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:9" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1256,9 +1259,9 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1275,9 +1278,9 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1294,9 +1297,9 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1315,9 +1318,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1334,9 +1337,9 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1353,27 +1356,27 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1390,9 +1393,9 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:7" ht="174" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1409,31 +1412,31 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
@@ -1441,55 +1444,55 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>59</v>
+    <row r="25" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>61</v>
+    <row r="26" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -1498,17 +1501,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
-        <v>67</v>
+    <row r="27" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -1517,19 +1520,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23" t="s">
-        <v>68</v>
+    </row>
+    <row r="28" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
@@ -1538,72 +1541,72 @@
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23" t="s">
-        <v>73</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="23"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="19"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A9A61-636E-4C17-87E7-47E3F9D90977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED3563-9F12-43F7-9A04-5AD70C6BDC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,14 +379,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>st 페이지 번호
-sort
-    0 : 최신순
-    1 : 종료된 경매 제외
-    2 : 내가 올린 것만</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/{userId}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -415,6 +407,15 @@
     }, ...
   ]
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>st 페이지 번호
+sort
+    0 : 최신순
+    1 : 종료된 경매 제외
+    2 : 내가 올린 것만
+9개씩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1056,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1427,10 +1428,10 @@
         <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1570,20 +1571,20 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED3563-9F12-43F7-9A04-5AD70C6BDC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C628414-7B15-4689-B9D0-597B3908BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="8610" yWindow="1995" windowWidth="17445" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,7 +799,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -905,7 +905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,7 +1047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,23 +1057,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" customWidth="1"/>
-    <col min="6" max="6" width="40.8984375" customWidth="1"/>
-    <col min="7" max="7" width="37.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1105,7 +1105,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="21" t="s">
         <v>14</v>
@@ -1151,7 +1151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="22"/>
       <c r="C5" s="19"/>
@@ -1163,7 +1163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
@@ -1184,7 +1184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="15" t="s">
         <v>17</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="15" t="s">
         <v>18</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="15" t="s">
         <v>19</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="15" t="s">
         <v>22</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="15" t="s">
         <v>25</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="15" t="s">
         <v>27</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="15" t="s">
         <v>41</v>
@@ -1319,7 +1319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="15" t="s">
         <v>44</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="15" t="s">
         <v>46</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="15"/>
       <c r="C16" s="3"/>
@@ -1366,7 +1366,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="15"/>
       <c r="C17" s="3"/>
@@ -1375,7 +1375,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="15" t="s">
         <v>28</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="174" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="15" t="s">
         <v>31</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="198" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="15" t="s">
         <v>51</v>
@@ -1434,7 +1434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="15" t="s">
         <v>52</v>
@@ -1449,11 +1449,11 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
@@ -1462,7 +1462,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="15"/>
       <c r="C24" s="3"/>
@@ -1471,7 +1471,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
         <v>58</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="87" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
         <v>60</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
         <v>66</v>
@@ -1530,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="15" t="s">
         <v>67</v>
@@ -1551,7 +1551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="15"/>
       <c r="C29" s="3"/>
@@ -1559,7 +1559,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="3"/>
@@ -1568,7 +1568,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="15" t="s">
         <v>71</v>
@@ -1587,7 +1587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="15"/>
       <c r="C32" s="3"/>
@@ -1596,7 +1596,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="15"/>
       <c r="C33" s="3"/>
@@ -1605,7 +1605,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="15"/>
       <c r="C34" s="3"/>

--- a/Bid 명세서.xlsx
+++ b/Bid 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BidHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BidHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C628414-7B15-4689-B9D0-597B3908BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232EFC65-5D78-4ED1-90B1-FFA2DCB89A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1995" windowWidth="17445" windowHeight="13605" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB414A50-C59C-475C-9036-27EE487A2F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Body</t>
   </si>
@@ -416,6 +416,10 @@
     1 : 종료된 경매 제외
     2 : 내가 올린 것만
 9개씩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete/{item_id}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -759,9 +763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,7 +803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -905,7 +909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,23 +1061,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BE611-3367-4621-8892-D35CDD5A6FF7}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="37.75" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" customWidth="1"/>
+    <col min="6" max="6" width="40.8984375" customWidth="1"/>
+    <col min="7" max="7" width="37.69921875" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1096,7 @@
       </c>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1105,7 +1109,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
       <c r="B4" s="21" t="s">
         <v>14</v>
@@ -1151,7 +1155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18"/>
       <c r="B5" s="22"/>
       <c r="C5" s="19"/>
@@ -1163,7 +1167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="18"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
@@ -1184,7 +1188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="87" x14ac:dyDescent="0.4">
       <c r="A7" s="18"/>
       <c r="B7" s="15" t="s">
         <v>17</v>
@@ -1203,7 +1207,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.4">
       <c r="A8" s="18"/>
       <c r="B8" s="15" t="s">
         <v>18</v>
@@ -1222,7 +1226,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" s="18"/>
       <c r="B9" s="15" t="s">
         <v>19</v>
@@ -1241,7 +1245,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A10" s="18"/>
       <c r="B10" s="15" t="s">
         <v>22</v>
@@ -1260,7 +1264,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="15" t="s">
         <v>25</v>
@@ -1279,7 +1283,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="15" t="s">
         <v>27</v>
@@ -1298,7 +1302,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="15" t="s">
         <v>41</v>
@@ -1319,7 +1323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="15" t="s">
         <v>44</v>
@@ -1338,7 +1342,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="15" t="s">
         <v>46</v>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="15"/>
       <c r="C16" s="3"/>
@@ -1366,7 +1370,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="15"/>
       <c r="C17" s="3"/>
@@ -1375,7 +1379,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="15" t="s">
         <v>28</v>
@@ -1394,7 +1398,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="174" x14ac:dyDescent="0.4">
       <c r="A19" s="18"/>
       <c r="B19" s="15" t="s">
         <v>31</v>
@@ -1413,7 +1417,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="15" t="s">
         <v>51</v>
@@ -1434,7 +1438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="15" t="s">
         <v>52</v>
@@ -1449,11 +1453,11 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
@@ -1462,7 +1466,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="15"/>
       <c r="C24" s="3"/>
@@ -1471,7 +1475,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="87" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
         <v>58</v>
@@ -1490,7 +1494,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
         <v>60</v>
@@ -1509,7 +1513,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
         <v>66</v>
@@ -1530,7 +1534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="15" t="s">
         <v>67</v>
@@ -1551,15 +1555,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="3"/>
@@ -1568,7 +1578,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="15" t="s">
         <v>71</v>
@@ -1587,7 +1597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="15"/>
       <c r="C32" s="3"/>
@@ -1596,7 +1606,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="15"/>
       <c r="C33" s="3"/>
@@ -1605,7 +1615,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="15"/>
       <c r="C34" s="3"/>
